--- a/OceanSubsidy/Template/SCI/科專類_經費支用明細表_學研(範本).xlsx
+++ b/OceanSubsidy/Template/SCI/科專類_經費支用明細表_學研(範本).xlsx
@@ -1,45 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\專案\海委會補助\114海委會補助\系統分析\範本\科專\執行階段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\外包資料夾\OceanSubsidy\OceanSubsidy\Template\SCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37329EC-9867-4AF5-A3A8-A819D0DD9980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0E3B6-D261-400F-9DF8-2C6E7033A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="經費支用明細表(範例)" sheetId="1" r:id="rId1"/>
+    <sheet name="經費支用明細表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DATA1">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA10">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA11">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA12">'經費支用明細表(範例)'!$E$12:$E$21</definedName>
-    <definedName name="DATA13">'經費支用明細表(範例)'!$C$12:$C$21</definedName>
-    <definedName name="DATA14">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA2">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA3">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA4">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA5">'經費支用明細表(範例)'!$D$12:$D$21</definedName>
-    <definedName name="DATA6">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA7">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA8">'經費支用明細表(範例)'!#REF!</definedName>
-    <definedName name="DATA9">'經費支用明細表(範例)'!$F$12:$F$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'經費支用明細表(範例)'!$1:$6</definedName>
-    <definedName name="TEST0">'經費支用明細表(範例)'!$E$12:$F$21</definedName>
-    <definedName name="TESTHKEY">'經費支用明細表(範例)'!$E$7:$F$7</definedName>
-    <definedName name="TESTKEYS">'經費支用明細表(範例)'!$E$12:$F$21</definedName>
-    <definedName name="TESTVKEY">'經費支用明細表(範例)'!$E$7:$F$7</definedName>
+    <definedName name="DATA1">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA10">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA11">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA12">經費支用明細表!$E$12:$E$21</definedName>
+    <definedName name="DATA13">經費支用明細表!$C$12:$C$21</definedName>
+    <definedName name="DATA14">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA2">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA3">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA4">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA5">經費支用明細表!$D$12:$D$21</definedName>
+    <definedName name="DATA6">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA7">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA8">經費支用明細表!#REF!</definedName>
+    <definedName name="DATA9">經費支用明細表!$F$12:$F$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">經費支用明細表!$1:$6</definedName>
+    <definedName name="TEST0">經費支用明細表!$E$12:$F$21</definedName>
+    <definedName name="TESTHKEY">經費支用明細表!$E$7:$F$7</definedName>
+    <definedName name="TESTKEYS">經費支用明細表!$E$12:$F$21</definedName>
+    <definedName name="TESTVKEY">經費支用明細表!$E$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -295,46 +306,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -363,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -509,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -651,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,7 +956,7 @@
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="A8:F42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:F42">
     <sortCondition ref="A16:A42"/>
     <sortCondition ref="B16:B42"/>
   </sortState>
